--- a/data/panelapp/au/Hereditary Spastic Paraplegia Superpanel.xlsx
+++ b/data/panelapp/au/Hereditary Spastic Paraplegia Superpanel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910666</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910677</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -511,12 +526,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ADAR</t>
+          <t>ABHD16A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>adenosine deaminase, RNA specific</t>
+          <t>abhydrolase domain containing 16A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -527,6 +542,11 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910681</t>
         </is>
       </c>
     </row>
@@ -536,12 +556,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AFG3L2</t>
+          <t>ADAR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AFG3 like matrix AAA peptidase subunit 2</t>
+          <t>adenosine deaminase, RNA specific</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,6 +572,11 @@
       <c r="E5" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910683</t>
         </is>
       </c>
     </row>
@@ -561,12 +586,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AIMP1</t>
+          <t>AFG3L2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>aminoacyl tRNA synthetase complex interacting multifunctional protein 1</t>
+          <t>AFG3 like matrix AAA peptidase subunit 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -577,6 +602,11 @@
       <c r="E6" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910686</t>
         </is>
       </c>
     </row>
@@ -586,12 +616,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ALDH18A1</t>
+          <t>AIMP1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>aldehyde dehydrogenase 18 family member A1</t>
+          <t>aminoacyl tRNA synthetase complex interacting multifunctional protein 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -602,6 +632,11 @@
       <c r="E7" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910689</t>
         </is>
       </c>
     </row>
@@ -629,6 +664,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910692</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -636,12 +676,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ALDH3A2</t>
+          <t>ALDH18A1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>aldehyde dehydrogenase 3 family member A2</t>
+          <t>aldehyde dehydrogenase 18 family member A1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -652,6 +692,11 @@
       <c r="E9" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910695</t>
         </is>
       </c>
     </row>
@@ -661,12 +706,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ALS2</t>
+          <t>ALDH3A2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ALS2, alsin Rho guanine nucleotide exchange factor</t>
+          <t>aldehyde dehydrogenase 3 family member A2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -677,6 +722,11 @@
       <c r="E10" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910697</t>
         </is>
       </c>
     </row>
@@ -686,12 +736,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AP4B1</t>
+          <t>ALS2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>adaptor related protein complex 4 beta 1 subunit</t>
+          <t>ALS2, alsin Rho guanine nucleotide exchange factor</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -702,6 +752,11 @@
       <c r="E11" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910701</t>
         </is>
       </c>
     </row>
@@ -711,12 +766,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AP4E1</t>
+          <t>AP4B1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>adaptor related protein complex 4 epsilon 1 subunit</t>
+          <t>adaptor related protein complex 4 beta 1 subunit</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -727,6 +782,11 @@
       <c r="E12" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910703</t>
         </is>
       </c>
     </row>
@@ -736,12 +796,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AP4M1</t>
+          <t>AP4E1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>adaptor related protein complex 4 mu 1 subunit</t>
+          <t>adaptor related protein complex 4 epsilon 1 subunit</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -752,6 +812,11 @@
       <c r="E13" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910706</t>
         </is>
       </c>
     </row>
@@ -761,12 +826,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AP4S1</t>
+          <t>AP4M1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>adaptor related protein complex 4 sigma 1 subunit</t>
+          <t>adaptor related protein complex 4 mu 1 subunit</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -777,6 +842,11 @@
       <c r="E14" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910708</t>
         </is>
       </c>
     </row>
@@ -786,12 +856,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AP5Z1</t>
+          <t>AP4S1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>adaptor related protein complex 5 zeta 1 subunit</t>
+          <t>adaptor related protein complex 4 sigma 1 subunit</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -802,6 +872,11 @@
       <c r="E15" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910711</t>
         </is>
       </c>
     </row>
@@ -811,12 +886,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ARG1</t>
+          <t>AP5Z1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>arginase 1</t>
+          <t>adaptor related protein complex 5 zeta 1 subunit</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -827,6 +902,11 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910714</t>
         </is>
       </c>
     </row>
@@ -836,12 +916,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ARL6IP1</t>
+          <t>ARG1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ADP ribosylation factor like GTPase 6 interacting protein 1</t>
+          <t>arginase 1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -852,6 +932,11 @@
       <c r="E17" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910716</t>
         </is>
       </c>
     </row>
@@ -861,12 +946,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATAD3A</t>
+          <t>ARL6IP1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ATPase family, AAA domain containing 3A</t>
+          <t>ADP ribosylation factor like GTPase 6 interacting protein 1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -877,6 +962,11 @@
       <c r="E18" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910719</t>
         </is>
       </c>
     </row>
@@ -886,12 +976,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATL1</t>
+          <t>ATAD3A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>atlastin GTPase 1</t>
+          <t>ATPase family, AAA domain containing 3A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -902,6 +992,11 @@
       <c r="E19" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910722</t>
         </is>
       </c>
     </row>
@@ -929,6 +1024,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910724</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -936,12 +1036,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATP13A2</t>
+          <t>ATL1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ATPase 13A2</t>
+          <t>atlastin GTPase 1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -952,6 +1052,11 @@
       <c r="E21" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910727</t>
         </is>
       </c>
     </row>
@@ -961,12 +1066,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B4GALNT1</t>
+          <t>ATP13A2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>beta-1,4-N-acetyl-galactosaminyltransferase 1</t>
+          <t>ATPase 13A2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -977,6 +1082,11 @@
       <c r="E22" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910730</t>
         </is>
       </c>
     </row>
@@ -1004,6 +1114,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910732</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1011,12 +1126,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BCAS3</t>
+          <t>B4GALNT1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BCAS3, microtubule associated cell migration factor</t>
+          <t>beta-1,4-N-acetyl-galactosaminyltransferase 1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1027,6 +1142,11 @@
       <c r="E24" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910735</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1156,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BSCL2</t>
+          <t>BCAS3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BSCL2, seipin lipid droplet biogenesis associated</t>
+          <t>BCAS3, microtubule associated cell migration factor</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1052,6 +1172,11 @@
       <c r="E25" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910737</t>
         </is>
       </c>
     </row>
@@ -1079,6 +1204,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910740</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1086,12 +1216,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>C12orf65</t>
+          <t>BSCL2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>chromosome 12 open reading frame 65</t>
+          <t>BSCL2, seipin lipid droplet biogenesis associated</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1102,6 +1232,11 @@
       <c r="E27" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910743</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1246,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C19orf12</t>
+          <t>C12orf65</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>chromosome 19 open reading frame 12</t>
+          <t>chromosome 12 open reading frame 65</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1127,6 +1262,11 @@
       <c r="E28" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910746</t>
         </is>
       </c>
     </row>
@@ -1154,6 +1294,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910748</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1161,12 +1306,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CAPN1</t>
+          <t>C19orf12</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>calpain 1</t>
+          <t>chromosome 19 open reading frame 12</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1177,6 +1322,11 @@
       <c r="E30" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910751</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1336,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CPT1C</t>
+          <t>CAPN1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>carnitine palmitoyltransferase 1C</t>
+          <t>calpain 1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1202,6 +1352,11 @@
       <c r="E31" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910753</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1366,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CYP27A1</t>
+          <t>CPT1C</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>cytochrome P450 family 27 subfamily A member 1</t>
+          <t>carnitine palmitoyltransferase 1C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1227,6 +1382,11 @@
       <c r="E32" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910756</t>
         </is>
       </c>
     </row>
@@ -1236,12 +1396,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CYP2U1</t>
+          <t>CYP27A1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>cytochrome P450 family 2 subfamily U member 1</t>
+          <t>cytochrome P450 family 27 subfamily A member 1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1252,6 +1412,11 @@
       <c r="E33" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910758</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1426,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CYP7B1</t>
+          <t>CYP2U1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>cytochrome P450 family 7 subfamily B member 1</t>
+          <t>cytochrome P450 family 2 subfamily U member 1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1277,6 +1442,11 @@
       <c r="E34" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910761</t>
         </is>
       </c>
     </row>
@@ -1304,6 +1474,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910764</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1311,12 +1486,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DARS</t>
+          <t>CYP7B1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>aspartyl-tRNA synthetase</t>
+          <t>cytochrome P450 family 7 subfamily B member 1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1327,6 +1502,11 @@
       <c r="E36" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910767</t>
         </is>
       </c>
     </row>
@@ -1354,6 +1534,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910769</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1361,12 +1546,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DDHD1</t>
+          <t>DARS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DDHD domain containing 1</t>
+          <t>aspartyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1377,6 +1562,11 @@
       <c r="E38" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910772</t>
         </is>
       </c>
     </row>
@@ -1404,6 +1594,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910774</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1411,12 +1606,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DDHD2</t>
+          <t>DDHD1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DDHD domain containing 2</t>
+          <t>DDHD domain containing 1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1427,6 +1622,11 @@
       <c r="E40" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910777</t>
         </is>
       </c>
     </row>
@@ -1454,6 +1654,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910780</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1461,12 +1666,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ELOVL1</t>
+          <t>DDHD2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ELOVL fatty acid elongase 1</t>
+          <t>DDHD domain containing 2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1477,6 +1682,11 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910783</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1696,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ENTPD1</t>
+          <t>ELOVL1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ectonucleoside triphosphate diphosphohydrolase 1</t>
+          <t>ELOVL fatty acid elongase 1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1502,6 +1712,11 @@
       <c r="E43" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910785</t>
         </is>
       </c>
     </row>
@@ -1511,12 +1726,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ERLIN1</t>
+          <t>ENTPD1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ER lipid raft associated 1</t>
+          <t>ectonucleoside triphosphate diphosphohydrolase 1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1527,6 +1742,11 @@
       <c r="E44" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910788</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1756,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ERLIN2</t>
+          <t>ERLIN1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ER lipid raft associated 2</t>
+          <t>ER lipid raft associated 1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1552,6 +1772,11 @@
       <c r="E45" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910790</t>
         </is>
       </c>
     </row>
@@ -1579,6 +1804,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910793</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1586,12 +1816,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FA2H</t>
+          <t>ERLIN2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>fatty acid 2-hydroxylase</t>
+          <t>ER lipid raft associated 2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1602,6 +1832,11 @@
       <c r="E47" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910796</t>
         </is>
       </c>
     </row>
@@ -1629,6 +1864,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910798</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1636,12 +1876,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FAR1</t>
+          <t>FA2H</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>fatty acyl-CoA reductase 1</t>
+          <t>fatty acid 2-hydroxylase</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1652,6 +1892,11 @@
       <c r="E49" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910801</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1906,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FARS2</t>
+          <t>FAR1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>phenylalanyl-tRNA synthetase 2, mitochondrial</t>
+          <t>fatty acyl-CoA reductase 1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1677,6 +1922,11 @@
       <c r="E50" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910804</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1936,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FBXO7</t>
+          <t>FARS2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>F-box protein 7</t>
+          <t>phenylalanyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1702,6 +1952,11 @@
       <c r="E51" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910806</t>
         </is>
       </c>
     </row>
@@ -1711,12 +1966,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FXN</t>
+          <t>FBXO7</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>frataxin</t>
+          <t>F-box protein 7</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1727,6 +1982,11 @@
       <c r="E52" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910809</t>
         </is>
       </c>
     </row>
@@ -1736,12 +1996,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GALC</t>
+          <t>FXN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>galactosylceramidase</t>
+          <t>frataxin</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1752,6 +2012,11 @@
       <c r="E53" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910811</t>
         </is>
       </c>
     </row>
@@ -1761,12 +2026,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GAN</t>
+          <t>GALC</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>gigaxonin</t>
+          <t>galactosylceramidase</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1777,6 +2042,11 @@
       <c r="E54" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910814</t>
         </is>
       </c>
     </row>
@@ -1786,12 +2056,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GBA2</t>
+          <t>GAN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>glucosylceramidase beta 2</t>
+          <t>gigaxonin</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1802,6 +2072,11 @@
       <c r="E55" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910817</t>
         </is>
       </c>
     </row>
@@ -1829,6 +2104,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910820</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1836,12 +2116,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GBE1</t>
+          <t>GBA2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1,4-alpha-glucan branching enzyme 1</t>
+          <t>glucosylceramidase beta 2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1852,6 +2132,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910822</t>
         </is>
       </c>
     </row>
@@ -1861,12 +2146,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GCH1</t>
+          <t>GBE1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GTP cyclohydrolase 1</t>
+          <t>1,4-alpha-glucan branching enzyme 1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1877,6 +2162,11 @@
       <c r="E58" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910825</t>
         </is>
       </c>
     </row>
@@ -1886,12 +2176,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GJA1</t>
+          <t>GCH1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>gap junction protein alpha 1</t>
+          <t>GTP cyclohydrolase 1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1902,6 +2192,11 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910828</t>
         </is>
       </c>
     </row>
@@ -1911,12 +2206,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GLRX5</t>
+          <t>GJA1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>glutaredoxin 5</t>
+          <t>gap junction protein alpha 1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1927,6 +2222,11 @@
       <c r="E60" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910830</t>
         </is>
       </c>
     </row>
@@ -1936,12 +2236,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GPT2</t>
+          <t>GLRX5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>glutamic--pyruvic transaminase 2</t>
+          <t>glutaredoxin 5</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1952,6 +2252,11 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910833</t>
         </is>
       </c>
     </row>
@@ -1961,12 +2266,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>HACE1</t>
+          <t>GPT2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HECT domain and ankyrin repeat containing E3 ubiquitin protein ligase 1</t>
+          <t>glutamic--pyruvic transaminase 2</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1977,6 +2282,11 @@
       <c r="E62" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910835</t>
         </is>
       </c>
     </row>
@@ -1986,12 +2296,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>HPDL</t>
+          <t>HACE1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>4-hydroxyphenylpyruvate dioxygenase like</t>
+          <t>HECT domain and ankyrin repeat containing E3 ubiquitin protein ligase 1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2002,6 +2312,11 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910838</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2326,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>HSPD1</t>
+          <t>HPDL</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>heat shock protein family D (Hsp60) member 1</t>
+          <t>4-hydroxyphenylpyruvate dioxygenase like</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2027,6 +2342,11 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910841</t>
         </is>
       </c>
     </row>
@@ -2036,12 +2356,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>IBA57</t>
+          <t>HSPD1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>IBA57 homolog, iron-sulfur cluster assembly</t>
+          <t>heat shock protein family D (Hsp60) member 1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2052,6 +2372,11 @@
       <c r="E65" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910843</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2386,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>IFIH1</t>
+          <t>IBA57</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>interferon induced with helicase C domain 1</t>
+          <t>IBA57 homolog, iron-sulfur cluster assembly</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2077,6 +2402,11 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910847</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2416,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>KCNA2</t>
+          <t>IFIH1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>potassium voltage-gated channel subfamily A member 2</t>
+          <t>interferon induced with helicase C domain 1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2102,6 +2432,11 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910850</t>
         </is>
       </c>
     </row>
@@ -2111,12 +2446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>KDM5C</t>
+          <t>KCNA2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>lysine demethylase 5C</t>
+          <t>potassium voltage-gated channel subfamily A member 2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2127,6 +2462,11 @@
       <c r="E68" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910853</t>
         </is>
       </c>
     </row>
@@ -2136,12 +2476,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>KIDINS220</t>
+          <t>KDM5C</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>kinase D interacting substrate 220</t>
+          <t>lysine demethylase 5C</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2152,6 +2492,11 @@
       <c r="E69" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910855</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2506,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KIF1A</t>
+          <t>KIDINS220</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>kinesin family member 1A</t>
+          <t>kinase D interacting substrate 220</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2177,6 +2522,11 @@
       <c r="E70" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910858</t>
         </is>
       </c>
     </row>
@@ -2204,6 +2554,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910860</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2211,12 +2566,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>KIF1C</t>
+          <t>KIF1A</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>kinesin family member 1C</t>
+          <t>kinesin family member 1A</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2227,6 +2582,11 @@
       <c r="E72" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910863</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2596,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>KIF5A</t>
+          <t>KIF1C</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>kinesin family member 5A</t>
+          <t>kinesin family member 1C</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2252,6 +2612,11 @@
       <c r="E73" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910865</t>
         </is>
       </c>
     </row>
@@ -2279,6 +2644,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910868</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2286,12 +2656,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>KLC2</t>
+          <t>KIF5A</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>kinesin light chain 2</t>
+          <t>kinesin family member 5A</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2302,6 +2672,11 @@
       <c r="E75" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910871</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2686,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>L1CAM</t>
+          <t>KLC2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>L1 cell adhesion molecule</t>
+          <t>kinesin light chain 2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2327,6 +2702,11 @@
       <c r="E76" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910873</t>
         </is>
       </c>
     </row>
@@ -2336,12 +2716,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MAG</t>
+          <t>L1CAM</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>myelin associated glycoprotein</t>
+          <t>L1 cell adhesion molecule</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2352,6 +2732,11 @@
       <c r="E77" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910876</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2746,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MAPK8IP3</t>
+          <t>MAG</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>mitogen-activated protein kinase 8 interacting protein 3</t>
+          <t>myelin associated glycoprotein</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2377,6 +2762,11 @@
       <c r="E78" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910880</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2776,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MARS2</t>
+          <t>MAPK8IP3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>methionyl-tRNA synthetase 2, mitochondrial</t>
+          <t>mitogen-activated protein kinase 8 interacting protein 3</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2402,6 +2792,11 @@
       <c r="E79" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910883</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2806,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MED27</t>
+          <t>MARS2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>mediator complex subunit 27</t>
+          <t>methionyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2427,6 +2822,11 @@
       <c r="E80" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910886</t>
         </is>
       </c>
     </row>
@@ -2436,12 +2836,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NIPA1</t>
+          <t>MED27</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>non imprinted in Prader-Willi/Angelman syndrome 1</t>
+          <t>mediator complex subunit 27</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2452,6 +2852,11 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910888</t>
         </is>
       </c>
     </row>
@@ -2479,6 +2884,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910891</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2486,12 +2896,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NKX6-2</t>
+          <t>NIPA1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>NK6 homeobox 2</t>
+          <t>non imprinted in Prader-Willi/Angelman syndrome 1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2502,6 +2912,11 @@
       <c r="E83" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910894</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2926,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NT5C2</t>
+          <t>NKX6-2</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>5'-nucleotidase, cytosolic II</t>
+          <t>NK6 homeobox 2</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2527,6 +2942,11 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910896</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2956,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>OPA3</t>
+          <t>NT5C2</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>OPA3, outer mitochondrial membrane lipid metabolism regulator</t>
+          <t>5'-nucleotidase, cytosolic II</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2552,6 +2972,11 @@
       <c r="E85" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910899</t>
         </is>
       </c>
     </row>
@@ -2579,6 +3004,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910902</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2586,12 +3016,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PCYT2</t>
+          <t>OPA3</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>phosphate cytidylyltransferase 2, ethanolamine</t>
+          <t>OPA3, outer mitochondrial membrane lipid metabolism regulator</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2602,6 +3032,11 @@
       <c r="E87" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910905</t>
         </is>
       </c>
     </row>
@@ -2629,6 +3064,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910907</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2636,12 +3076,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PI4KA</t>
+          <t>PCYT2</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>phosphatidylinositol 4-kinase alpha</t>
+          <t>phosphate cytidylyltransferase 2, ethanolamine</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2652,6 +3092,11 @@
       <c r="E89" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910910</t>
         </is>
       </c>
     </row>
@@ -2661,12 +3106,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PLP1</t>
+          <t>PI4KA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>proteolipid protein 1</t>
+          <t>phosphatidylinositol 4-kinase alpha</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2677,6 +3122,11 @@
       <c r="E90" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910912</t>
         </is>
       </c>
     </row>
@@ -2704,6 +3154,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910915</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2711,12 +3166,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PNPLA6</t>
+          <t>PLP1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>patatin like phospholipase domain containing 6</t>
+          <t>proteolipid protein 1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2727,6 +3182,11 @@
       <c r="E92" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910918</t>
         </is>
       </c>
     </row>
@@ -2736,12 +3196,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>POLR3A</t>
+          <t>PNPLA6</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>RNA polymerase III subunit A</t>
+          <t>patatin like phospholipase domain containing 6</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2752,6 +3212,11 @@
       <c r="E93" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910920</t>
         </is>
       </c>
     </row>
@@ -2761,12 +3226,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PSEN1</t>
+          <t>POLR3A</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>presenilin 1</t>
+          <t>RNA polymerase III subunit A</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2777,6 +3242,11 @@
       <c r="E94" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910924</t>
         </is>
       </c>
     </row>
@@ -2786,12 +3256,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>RAB3GAP2</t>
+          <t>PSEN1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>RAB3 GTPase activating non-catalytic protein subunit 2</t>
+          <t>presenilin 1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2802,6 +3272,11 @@
       <c r="E95" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910927</t>
         </is>
       </c>
     </row>
@@ -2811,12 +3286,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>REEP1</t>
+          <t>RAB3GAP2</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>receptor accessory protein 1</t>
+          <t>RAB3 GTPase activating non-catalytic protein subunit 2</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2827,6 +3302,11 @@
       <c r="E96" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910930</t>
         </is>
       </c>
     </row>
@@ -2854,6 +3334,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910932</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2861,12 +3346,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>REEP2</t>
+          <t>REEP1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>receptor accessory protein 2</t>
+          <t>receptor accessory protein 1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2877,6 +3362,11 @@
       <c r="E98" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910935</t>
         </is>
       </c>
     </row>
@@ -2886,12 +3376,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RNASEH2B</t>
+          <t>REEP2</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ribonuclease H2 subunit B</t>
+          <t>receptor accessory protein 2</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2902,6 +3392,11 @@
       <c r="E99" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910938</t>
         </is>
       </c>
     </row>
@@ -2911,12 +3406,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>RNF170</t>
+          <t>RNASEH2B</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ring finger protein 170</t>
+          <t>ribonuclease H2 subunit B</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2927,6 +3422,11 @@
       <c r="E100" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910940</t>
         </is>
       </c>
     </row>
@@ -2936,12 +3436,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>RNU7-1</t>
+          <t>RNF170</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>RNA, U7 small nuclear 1</t>
+          <t>ring finger protein 170</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2952,6 +3452,11 @@
       <c r="E101" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910943</t>
         </is>
       </c>
     </row>
@@ -2961,12 +3466,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>RTN2</t>
+          <t>RNU7-1</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>reticulon 2</t>
+          <t>RNA, U7 small nuclear 1</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2977,6 +3482,11 @@
       <c r="E102" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910945</t>
         </is>
       </c>
     </row>
@@ -3004,6 +3514,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910948</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3011,12 +3526,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SACS</t>
+          <t>RTN2</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>sacsin molecular chaperone</t>
+          <t>reticulon 2</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3027,6 +3542,11 @@
       <c r="E104" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910951</t>
         </is>
       </c>
     </row>
@@ -3054,6 +3574,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910953</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3061,12 +3586,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SAMHD1</t>
+          <t>SACS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SAM and HD domain containing deoxynucleoside triphosphate triphosphohydrolase 1</t>
+          <t>sacsin molecular chaperone</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3077,6 +3602,11 @@
       <c r="E106" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910956</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3616,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SERAC1</t>
+          <t>SAMHD1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>serine active site containing 1</t>
+          <t>SAM and HD domain containing deoxynucleoside triphosphate triphosphohydrolase 1</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3102,6 +3632,11 @@
       <c r="E107" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910958</t>
         </is>
       </c>
     </row>
@@ -3111,12 +3646,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SHMT2</t>
+          <t>SERAC1</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>serine hydroxymethyltransferase 2</t>
+          <t>serine active site containing 1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3127,6 +3662,11 @@
       <c r="E108" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910961</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3676,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SLC16A2</t>
+          <t>SHMT2</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>solute carrier family 16 member 2</t>
+          <t>serine hydroxymethyltransferase 2</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3152,6 +3692,11 @@
       <c r="E109" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910963</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3706,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SLC1A4</t>
+          <t>SLC16A2</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>solute carrier family 1 member 4</t>
+          <t>solute carrier family 16 member 2</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3177,6 +3722,11 @@
       <c r="E110" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910968</t>
         </is>
       </c>
     </row>
@@ -3186,12 +3736,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SLC25A15</t>
+          <t>SLC1A4</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>solute carrier family 25 member 15</t>
+          <t>solute carrier family 1 member 4</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3202,6 +3752,11 @@
       <c r="E111" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910971</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3766,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SLC2A1</t>
+          <t>SLC25A15</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>solute carrier family 2 member 1</t>
+          <t>solute carrier family 25 member 15</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3227,6 +3782,11 @@
       <c r="E112" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910973</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3796,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SPART</t>
+          <t>SLC2A1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>spartin</t>
+          <t>solute carrier family 2 member 1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3252,6 +3812,11 @@
       <c r="E113" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910976</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3826,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SPAST</t>
+          <t>SPART</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>spastin</t>
+          <t>spartin</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3277,6 +3842,11 @@
       <c r="E114" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910979</t>
         </is>
       </c>
     </row>
@@ -3304,6 +3874,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910981</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3311,12 +3886,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SPG11</t>
+          <t>SPAST</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SPG11, spatacsin vesicle trafficking associated</t>
+          <t>spastin</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3327,6 +3902,11 @@
       <c r="E116" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910984</t>
         </is>
       </c>
     </row>
@@ -3354,6 +3934,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910986</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3361,12 +3946,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SPG21</t>
+          <t>SPG11</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SPG21, maspardin</t>
+          <t>SPG11, spatacsin vesicle trafficking associated</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3377,6 +3962,11 @@
       <c r="E118" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910989</t>
         </is>
       </c>
     </row>
@@ -3386,12 +3976,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SPG7</t>
+          <t>SPG21</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SPG7, paraplegin matrix AAA peptidase subunit</t>
+          <t>SPG21, maspardin</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3402,6 +3992,11 @@
       <c r="E119" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910991</t>
         </is>
       </c>
     </row>
@@ -3429,6 +4024,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910994</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3436,12 +4036,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TBCE</t>
+          <t>SPG7</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>tubulin folding cofactor E</t>
+          <t>SPG7, paraplegin matrix AAA peptidase subunit</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3452,6 +4052,11 @@
       <c r="E121" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910997</t>
         </is>
       </c>
     </row>
@@ -3461,12 +4066,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TECPR2</t>
+          <t>TBCE</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>tectonin beta-propeller repeat containing 2</t>
+          <t>tubulin folding cofactor E</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3477,6 +4082,11 @@
       <c r="E122" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.910999</t>
         </is>
       </c>
     </row>
@@ -3486,12 +4096,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TFG</t>
+          <t>TECPR2</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>TRK-fused gene</t>
+          <t>tectonin beta-propeller repeat containing 2</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3502,6 +4112,11 @@
       <c r="E123" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911002</t>
         </is>
       </c>
     </row>
@@ -3511,12 +4126,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TSPOAP1</t>
+          <t>TFG</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>TSPO associated protein 1</t>
+          <t>TRK-fused gene</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3527,6 +4142,11 @@
       <c r="E124" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911004</t>
         </is>
       </c>
     </row>
@@ -3536,12 +4156,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TUBB4A</t>
+          <t>TSPOAP1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>tubulin beta 4A class IVa</t>
+          <t>TSPO associated protein 1</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3552,6 +4172,11 @@
       <c r="E125" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911007</t>
         </is>
       </c>
     </row>
@@ -3561,12 +4186,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>UBAP1</t>
+          <t>TUBB4A</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>ubiquitin associated protein 1</t>
+          <t>tubulin beta 4A class IVa</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3577,6 +4202,11 @@
       <c r="E126" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911009</t>
         </is>
       </c>
     </row>
@@ -3604,6 +4234,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911012</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3611,12 +4246,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>UCHL1</t>
+          <t>UBAP1</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>ubiquitin C-terminal hydrolase L1</t>
+          <t>ubiquitin associated protein 1</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3627,6 +4262,11 @@
       <c r="E128" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911015</t>
         </is>
       </c>
     </row>
@@ -3636,12 +4276,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>WASHC5</t>
+          <t>UCHL1</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>WASH complex subunit 5</t>
+          <t>ubiquitin C-terminal hydrolase L1</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3652,6 +4292,11 @@
       <c r="E129" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911017</t>
         </is>
       </c>
     </row>
@@ -3661,12 +4306,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>WDR45B</t>
+          <t>WASHC5</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>WD repeat domain 45B</t>
+          <t>WASH complex subunit 5</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3677,6 +4322,11 @@
       <c r="E130" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911022</t>
         </is>
       </c>
     </row>
@@ -3686,12 +4336,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ZFYVE26</t>
+          <t>WDR45B</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>zinc finger FYVE-type containing 26</t>
+          <t>WD repeat domain 45B</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3702,6 +4352,11 @@
       <c r="E131" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911025</t>
         </is>
       </c>
     </row>
@@ -3729,6 +4384,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911028</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3736,22 +4396,27 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>AAAS</t>
+          <t>ZFYVE26</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>aladin WD repeat nucleoporin</t>
+          <t>zinc finger FYVE-type containing 26</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911030</t>
         </is>
       </c>
     </row>
@@ -3761,12 +4426,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ALK</t>
+          <t>AAAS</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>ALK receptor tyrosine kinase</t>
+          <t>aladin WD repeat nucleoporin</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3777,6 +4442,11 @@
       <c r="E134" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911033</t>
         </is>
       </c>
     </row>
@@ -3786,12 +4456,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>AP5Z1</t>
+          <t>ALK</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>adaptor related protein complex 5 zeta 1 subunit</t>
+          <t>ALK receptor tyrosine kinase</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3802,6 +4472,11 @@
       <c r="E135" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911035</t>
         </is>
       </c>
     </row>
@@ -3811,12 +4486,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ATP2B4</t>
+          <t>AP5Z1</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>ATPase plasma membrane Ca2+ transporting 4</t>
+          <t>adaptor related protein complex 5 zeta 1 subunit</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3827,6 +4502,11 @@
       <c r="E136" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911038</t>
         </is>
       </c>
     </row>
@@ -3836,12 +4516,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>BICD2</t>
+          <t>ATP2B4</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>BICD cargo adaptor 2</t>
+          <t>ATPase plasma membrane Ca2+ transporting 4</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3852,6 +4532,11 @@
       <c r="E137" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911041</t>
         </is>
       </c>
     </row>
@@ -3861,12 +4546,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CCDC88C</t>
+          <t>BICD2</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>coiled-coil domain containing 88C</t>
+          <t>BICD cargo adaptor 2</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3877,6 +4562,11 @@
       <c r="E138" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911043</t>
         </is>
       </c>
     </row>
@@ -3886,12 +4576,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DSTYK</t>
+          <t>CCDC88C</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>dual serine/threonine and tyrosine protein kinase</t>
+          <t>coiled-coil domain containing 88C</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3902,6 +4592,11 @@
       <c r="E139" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911046</t>
         </is>
       </c>
     </row>
@@ -3911,12 +4606,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>EXOSC3</t>
+          <t>DSTYK</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>exosome component 3</t>
+          <t>dual serine/threonine and tyrosine protein kinase</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3927,6 +4622,11 @@
       <c r="E140" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911048</t>
         </is>
       </c>
     </row>
@@ -3936,12 +4636,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>GCH1</t>
+          <t>EXOSC3</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>GTP cyclohydrolase 1</t>
+          <t>exosome component 3</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3952,6 +4652,11 @@
       <c r="E141" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911051</t>
         </is>
       </c>
     </row>
@@ -3961,12 +4666,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>GJC2</t>
+          <t>GCH1</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>gap junction protein gamma 2</t>
+          <t>GTP cyclohydrolase 1</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3977,6 +4682,11 @@
       <c r="E142" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911054</t>
         </is>
       </c>
     </row>
@@ -4004,6 +4714,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911056</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4011,12 +4726,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>HSPD1</t>
+          <t>GJC2</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>heat shock protein family D (Hsp60) member 1</t>
+          <t>gap junction protein gamma 2</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4027,6 +4742,11 @@
       <c r="E144" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911059</t>
         </is>
       </c>
     </row>
@@ -4036,12 +4756,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>IRF2BPL</t>
+          <t>HSPD1</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>interferon regulatory factor 2 binding protein like</t>
+          <t>heat shock protein family D (Hsp60) member 1</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4052,6 +4772,11 @@
       <c r="E145" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911062</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4786,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>LYST</t>
+          <t>IRF2BPL</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>lysosomal trafficking regulator</t>
+          <t>interferon regulatory factor 2 binding protein like</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4077,6 +4802,11 @@
       <c r="E146" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911064</t>
         </is>
       </c>
     </row>
@@ -4086,12 +4816,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PNPLA6</t>
+          <t>LYST</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>patatin like phospholipase domain containing 6</t>
+          <t>lysosomal trafficking regulator</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4102,6 +4832,11 @@
       <c r="E147" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911067</t>
         </is>
       </c>
     </row>
@@ -4111,12 +4846,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SEC31A</t>
+          <t>PNPLA6</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SEC31 homolog A, COPII coat complex component</t>
+          <t>patatin like phospholipase domain containing 6</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4127,6 +4862,11 @@
       <c r="E148" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911069</t>
         </is>
       </c>
     </row>
@@ -4136,12 +4876,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SELENOI</t>
+          <t>SEC31A</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>selenoprotein I</t>
+          <t>SEC31 homolog A, COPII coat complex component</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4152,6 +4892,11 @@
       <c r="E149" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911072</t>
         </is>
       </c>
     </row>
@@ -4161,12 +4906,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SOX10</t>
+          <t>SELENOI</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SRY-box 10</t>
+          <t>selenoprotein I</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4177,6 +4922,11 @@
       <c r="E150" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911075</t>
         </is>
       </c>
     </row>
@@ -4186,12 +4936,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TUBB4A</t>
+          <t>SOX10</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>tubulin beta 4A class IVa</t>
+          <t>SRY-box 10</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4202,6 +4952,11 @@
       <c r="E151" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911077</t>
         </is>
       </c>
     </row>
@@ -4211,12 +4966,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>UNC80</t>
+          <t>TUBB4A</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>unc-80 homolog, NALCN channel complex subunit</t>
+          <t>tubulin beta 4A class IVa</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4227,6 +4982,11 @@
       <c r="E152" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911080</t>
         </is>
       </c>
     </row>
@@ -4236,12 +4996,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>USP8</t>
+          <t>UNC80</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ubiquitin specific peptidase 8</t>
+          <t>unc-80 homolog, NALCN channel complex subunit</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4252,6 +5012,11 @@
       <c r="E153" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911082</t>
         </is>
       </c>
     </row>
@@ -4261,12 +5026,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>VAMP1</t>
+          <t>USP8</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>vesicle associated membrane protein 1</t>
+          <t>ubiquitin specific peptidase 8</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4277,6 +5042,11 @@
       <c r="E154" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911085</t>
         </is>
       </c>
     </row>
@@ -4304,6 +5074,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911087</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4311,12 +5086,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>VPS37A</t>
+          <t>VAMP1</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>VPS37A, ESCRT-I subunit</t>
+          <t>vesicle associated membrane protein 1</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4327,6 +5102,11 @@
       <c r="E156" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911090</t>
         </is>
       </c>
     </row>
@@ -4336,22 +5116,27 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ACOX1</t>
+          <t>VPS37A</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>acyl-CoA oxidase 1</t>
+          <t>VPS37A, ESCRT-I subunit</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911092</t>
         </is>
       </c>
     </row>
@@ -4361,12 +5146,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>AMPD2</t>
+          <t>ACOX1</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>adenosine monophosphate deaminase 2</t>
+          <t>acyl-CoA oxidase 1</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4377,6 +5162,11 @@
       <c r="E158" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911095</t>
         </is>
       </c>
     </row>
@@ -4386,12 +5176,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ARSI</t>
+          <t>AMPD2</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>arylsulfatase family member I</t>
+          <t>adenosine monophosphate deaminase 2</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4402,6 +5192,11 @@
       <c r="E159" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911097</t>
         </is>
       </c>
     </row>
@@ -4411,12 +5206,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ATP1A1</t>
+          <t>ARSI</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>ATPase Na+/K+ transporting subunit alpha 1</t>
+          <t>arylsulfatase family member I</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4427,6 +5222,11 @@
       <c r="E160" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911100</t>
         </is>
       </c>
     </row>
@@ -4436,12 +5236,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CCT5</t>
+          <t>ATP1A1</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>chaperonin containing TCP1 subunit 5</t>
+          <t>ATPase Na+/K+ transporting subunit alpha 1</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4452,6 +5252,11 @@
       <c r="E161" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911102</t>
         </is>
       </c>
     </row>
@@ -4461,12 +5266,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CLPP</t>
+          <t>CCT5</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>caseinolytic mitochondrial matrix peptidase proteolytic subunit</t>
+          <t>chaperonin containing TCP1 subunit 5</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4477,6 +5282,11 @@
       <c r="E162" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911105</t>
         </is>
       </c>
     </row>
@@ -4486,12 +5296,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DNM2</t>
+          <t>CLPP</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>dynamin 2</t>
+          <t>caseinolytic mitochondrial matrix peptidase proteolytic subunit</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4502,6 +5312,11 @@
       <c r="E163" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911108</t>
         </is>
       </c>
     </row>
@@ -4511,12 +5326,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>FOXG1</t>
+          <t>DNM2</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>forkhead box G1</t>
+          <t>dynamin 2</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4527,6 +5342,11 @@
       <c r="E164" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911110</t>
         </is>
       </c>
     </row>
@@ -4536,12 +5356,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>GAD1</t>
+          <t>FOXG1</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>glutamate decarboxylase 1</t>
+          <t>forkhead box G1</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4552,6 +5372,11 @@
       <c r="E165" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911113</t>
         </is>
       </c>
     </row>
@@ -4561,12 +5386,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>GRID2</t>
+          <t>GAD1</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>glutamate ionotropic receptor delta type subunit 2</t>
+          <t>glutamate decarboxylase 1</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4577,6 +5402,11 @@
       <c r="E166" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911116</t>
         </is>
       </c>
     </row>
@@ -4586,12 +5416,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>HARS2</t>
+          <t>GRID2</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>histidyl-tRNA synthetase 2, mitochondrial</t>
+          <t>glutamate ionotropic receptor delta type subunit 2</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4602,6 +5432,11 @@
       <c r="E167" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911118</t>
         </is>
       </c>
     </row>
@@ -4611,12 +5446,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>IFRD1</t>
+          <t>HARS2</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>interferon related developmental regulator 1</t>
+          <t>histidyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4627,6 +5462,11 @@
       <c r="E168" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911121</t>
         </is>
       </c>
     </row>
@@ -4636,12 +5476,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>KLC4</t>
+          <t>IFRD1</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>kinesin light chain 4</t>
+          <t>interferon related developmental regulator 1</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4652,6 +5492,11 @@
       <c r="E169" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911123</t>
         </is>
       </c>
     </row>
@@ -4661,12 +5506,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>LARS2</t>
+          <t>KLC4</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>leucyl-tRNA synthetase 2, mitochondrial</t>
+          <t>kinesin light chain 4</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4677,6 +5522,11 @@
       <c r="E170" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911126</t>
         </is>
       </c>
     </row>
@@ -4686,12 +5536,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MARS</t>
+          <t>LARS2</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>methionyl-tRNA synthetase</t>
+          <t>leucyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4702,6 +5552,11 @@
       <c r="E171" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911129</t>
         </is>
       </c>
     </row>
@@ -4711,12 +5566,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MTPAP</t>
+          <t>MARS</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>mitochondrial poly(A) polymerase</t>
+          <t>methionyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4727,6 +5582,11 @@
       <c r="E172" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911131</t>
         </is>
       </c>
     </row>
@@ -4736,12 +5596,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PGAP1</t>
+          <t>MTPAP</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>post-GPI attachment to proteins 1</t>
+          <t>mitochondrial poly(A) polymerase</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4752,6 +5612,11 @@
       <c r="E173" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911134</t>
         </is>
       </c>
     </row>
@@ -4761,12 +5626,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SARS2</t>
+          <t>PGAP1</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>seryl-tRNA synthetase 2, mitochondrial</t>
+          <t>post-GPI attachment to proteins 1</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4777,6 +5642,11 @@
       <c r="E174" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911137</t>
         </is>
       </c>
     </row>
@@ -4786,12 +5656,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SLC19A3</t>
+          <t>SARS2</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>solute carrier family 19 member 3</t>
+          <t>seryl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4802,6 +5672,11 @@
       <c r="E175" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911140</t>
         </is>
       </c>
     </row>
@@ -4811,12 +5686,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>SLC33A1</t>
+          <t>SLC19A3</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>solute carrier family 33 member 1</t>
+          <t>solute carrier family 19 member 3</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4827,6 +5702,11 @@
       <c r="E176" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911143</t>
         </is>
       </c>
     </row>
@@ -4854,6 +5734,11 @@
           <t>Hereditary Spastic Paraplegia Superpanel</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911145</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4861,12 +5746,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>STXBP1</t>
+          <t>SLC33A1</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>syntaxin binding protein 1</t>
+          <t>solute carrier family 33 member 1</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4877,6 +5762,11 @@
       <c r="E178" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911148</t>
         </is>
       </c>
     </row>
@@ -4886,12 +5776,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TPP1</t>
+          <t>STXBP1</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>tripeptidyl peptidase 1</t>
+          <t>syntaxin binding protein 1</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4902,6 +5792,11 @@
       <c r="E179" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911151</t>
         </is>
       </c>
     </row>
@@ -4911,12 +5806,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TSPOAP1</t>
+          <t>TPP1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>TSPO associated protein 1</t>
+          <t>tripeptidyl peptidase 1</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4927,6 +5822,11 @@
       <c r="E180" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911153</t>
         </is>
       </c>
     </row>
@@ -4936,12 +5836,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TTR</t>
+          <t>TSPOAP1</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>transthyretin</t>
+          <t>TSPO associated protein 1</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4952,6 +5852,11 @@
       <c r="E181" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911156</t>
         </is>
       </c>
     </row>
@@ -4961,12 +5866,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>WDR48</t>
+          <t>TTR</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>WD repeat domain 48</t>
+          <t>transthyretin</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4977,6 +5882,11 @@
       <c r="E182" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911158</t>
         </is>
       </c>
     </row>
@@ -4986,12 +5896,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ZFR</t>
+          <t>WDR48</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>zinc finger RNA binding protein</t>
+          <t>WD repeat domain 48</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5002,6 +5912,11 @@
       <c r="E183" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911161</t>
         </is>
       </c>
     </row>
@@ -5011,22 +5926,57 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
+          <t>ZFR</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>zinc finger RNA binding protein</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911163</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
           <t>ZFYVE27</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>zinc finger FYVE-type containing 27</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>Hereditary Spastic Paraplegia Superpanel</t>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.911166</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Hereditary Spastic Paraplegia Superpanel.xlsx
+++ b/data/panelapp/au/Hereditary Spastic Paraplegia Superpanel.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910666</t>
+          <t>2021-10-05 14:34:00.666979</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910677</t>
+          <t>2021-10-05 14:34:00.666987</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910681</t>
+          <t>2021-10-05 14:34:00.666991</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910683</t>
+          <t>2021-10-05 14:34:00.666993</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910686</t>
+          <t>2021-10-05 14:34:00.666997</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910689</t>
+          <t>2021-10-05 14:34:00.667000</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910692</t>
+          <t>2021-10-05 14:34:00.667003</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910695</t>
+          <t>2021-10-05 14:34:00.667005</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910697</t>
+          <t>2021-10-05 14:34:00.667008</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910701</t>
+          <t>2021-10-05 14:34:00.667011</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910703</t>
+          <t>2021-10-05 14:34:00.667014</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910706</t>
+          <t>2021-10-05 14:34:00.667017</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910708</t>
+          <t>2021-10-05 14:34:00.667019</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910711</t>
+          <t>2021-10-05 14:34:00.667022</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910714</t>
+          <t>2021-10-05 14:34:00.667025</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910716</t>
+          <t>2021-10-05 14:34:00.667027</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910719</t>
+          <t>2021-10-05 14:34:00.667030</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910722</t>
+          <t>2021-10-05 14:34:00.667033</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910724</t>
+          <t>2021-10-05 14:34:00.667036</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910727</t>
+          <t>2021-10-05 14:34:00.667038</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910730</t>
+          <t>2021-10-05 14:34:00.667041</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910732</t>
+          <t>2021-10-05 14:34:00.667044</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910735</t>
+          <t>2021-10-05 14:34:00.667046</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910737</t>
+          <t>2021-10-05 14:34:00.667049</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910740</t>
+          <t>2021-10-05 14:34:00.667052</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910743</t>
+          <t>2021-10-05 14:34:00.667055</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910746</t>
+          <t>2021-10-05 14:34:00.667057</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910748</t>
+          <t>2021-10-05 14:34:00.667060</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910751</t>
+          <t>2021-10-05 14:34:00.667063</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910753</t>
+          <t>2021-10-05 14:34:00.667065</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910756</t>
+          <t>2021-10-05 14:34:00.667068</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910758</t>
+          <t>2021-10-05 14:34:00.667071</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910761</t>
+          <t>2021-10-05 14:34:00.667074</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910764</t>
+          <t>2021-10-05 14:34:00.667077</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910767</t>
+          <t>2021-10-05 14:34:00.667080</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910769</t>
+          <t>2021-10-05 14:34:00.667082</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910772</t>
+          <t>2021-10-05 14:34:00.667085</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910774</t>
+          <t>2021-10-05 14:34:00.667088</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910777</t>
+          <t>2021-10-05 14:34:00.667090</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910780</t>
+          <t>2021-10-05 14:34:00.667093</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910783</t>
+          <t>2021-10-05 14:34:00.667096</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910785</t>
+          <t>2021-10-05 14:34:00.667099</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910788</t>
+          <t>2021-10-05 14:34:00.667102</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910790</t>
+          <t>2021-10-05 14:34:00.667104</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910793</t>
+          <t>2021-10-05 14:34:00.667107</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910796</t>
+          <t>2021-10-05 14:34:00.667110</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910798</t>
+          <t>2021-10-05 14:34:00.667113</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910801</t>
+          <t>2021-10-05 14:34:00.667115</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910804</t>
+          <t>2021-10-05 14:34:00.667118</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910806</t>
+          <t>2021-10-05 14:34:00.667121</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910809</t>
+          <t>2021-10-05 14:34:00.667124</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910811</t>
+          <t>2021-10-05 14:34:00.667126</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910814</t>
+          <t>2021-10-05 14:34:00.667129</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910817</t>
+          <t>2021-10-05 14:34:00.667132</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910820</t>
+          <t>2021-10-05 14:34:00.667135</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910822</t>
+          <t>2021-10-05 14:34:00.667137</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910825</t>
+          <t>2021-10-05 14:34:00.667141</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910828</t>
+          <t>2021-10-05 14:34:00.667143</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910830</t>
+          <t>2021-10-05 14:34:00.667146</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910833</t>
+          <t>2021-10-05 14:34:00.667149</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910835</t>
+          <t>2021-10-05 14:34:00.667151</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910838</t>
+          <t>2021-10-05 14:34:00.667154</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910841</t>
+          <t>2021-10-05 14:34:00.667157</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910843</t>
+          <t>2021-10-05 14:34:00.667160</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910847</t>
+          <t>2021-10-05 14:34:00.667164</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910850</t>
+          <t>2021-10-05 14:34:00.667167</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910853</t>
+          <t>2021-10-05 14:34:00.667170</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910855</t>
+          <t>2021-10-05 14:34:00.667172</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910858</t>
+          <t>2021-10-05 14:34:00.667175</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910860</t>
+          <t>2021-10-05 14:34:00.667178</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910863</t>
+          <t>2021-10-05 14:34:00.667181</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910865</t>
+          <t>2021-10-05 14:34:00.667183</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910868</t>
+          <t>2021-10-05 14:34:00.667186</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910871</t>
+          <t>2021-10-05 14:34:00.667189</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910873</t>
+          <t>2021-10-05 14:34:00.667191</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910876</t>
+          <t>2021-10-05 14:34:00.667194</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910880</t>
+          <t>2021-10-05 14:34:00.667199</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910883</t>
+          <t>2021-10-05 14:34:00.667202</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910886</t>
+          <t>2021-10-05 14:34:00.667205</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910888</t>
+          <t>2021-10-05 14:34:00.667208</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910891</t>
+          <t>2021-10-05 14:34:00.667210</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910894</t>
+          <t>2021-10-05 14:34:00.667213</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910896</t>
+          <t>2021-10-05 14:34:00.667216</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910899</t>
+          <t>2021-10-05 14:34:00.667218</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910902</t>
+          <t>2021-10-05 14:34:00.667221</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910905</t>
+          <t>2021-10-05 14:34:00.667224</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910907</t>
+          <t>2021-10-05 14:34:00.667227</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910910</t>
+          <t>2021-10-05 14:34:00.667229</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910912</t>
+          <t>2021-10-05 14:34:00.667232</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910915</t>
+          <t>2021-10-05 14:34:00.667234</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910918</t>
+          <t>2021-10-05 14:34:00.667237</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910920</t>
+          <t>2021-10-05 14:34:00.667240</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910924</t>
+          <t>2021-10-05 14:34:00.667243</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910927</t>
+          <t>2021-10-05 14:34:00.667246</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910930</t>
+          <t>2021-10-05 14:34:00.667249</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910932</t>
+          <t>2021-10-05 14:34:00.667251</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910935</t>
+          <t>2021-10-05 14:34:00.667254</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910938</t>
+          <t>2021-10-05 14:34:00.667256</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910940</t>
+          <t>2021-10-05 14:34:00.667259</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910943</t>
+          <t>2021-10-05 14:34:00.667261</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910945</t>
+          <t>2021-10-05 14:34:00.667264</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910948</t>
+          <t>2021-10-05 14:34:00.667267</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910951</t>
+          <t>2021-10-05 14:34:00.667269</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910953</t>
+          <t>2021-10-05 14:34:00.667272</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910956</t>
+          <t>2021-10-05 14:34:00.667274</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910958</t>
+          <t>2021-10-05 14:34:00.667277</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910961</t>
+          <t>2021-10-05 14:34:00.667280</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910963</t>
+          <t>2021-10-05 14:34:00.667282</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910968</t>
+          <t>2021-10-05 14:34:00.667287</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910971</t>
+          <t>2021-10-05 14:34:00.667290</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910973</t>
+          <t>2021-10-05 14:34:00.667293</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910976</t>
+          <t>2021-10-05 14:34:00.667295</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910979</t>
+          <t>2021-10-05 14:34:00.667298</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910981</t>
+          <t>2021-10-05 14:34:00.667301</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910984</t>
+          <t>2021-10-05 14:34:00.667303</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910986</t>
+          <t>2021-10-05 14:34:00.667306</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910989</t>
+          <t>2021-10-05 14:34:00.667309</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910991</t>
+          <t>2021-10-05 14:34:00.667311</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910994</t>
+          <t>2021-10-05 14:34:00.667314</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910997</t>
+          <t>2021-10-05 14:34:00.667317</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.910999</t>
+          <t>2021-10-05 14:34:00.667319</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911002</t>
+          <t>2021-10-05 14:34:00.667322</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911004</t>
+          <t>2021-10-05 14:34:00.667325</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911007</t>
+          <t>2021-10-05 14:34:00.667327</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911009</t>
+          <t>2021-10-05 14:34:00.667330</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911012</t>
+          <t>2021-10-05 14:34:00.667333</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911015</t>
+          <t>2021-10-05 14:34:00.667335</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911017</t>
+          <t>2021-10-05 14:34:00.667338</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911022</t>
+          <t>2021-10-05 14:34:00.667343</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911025</t>
+          <t>2021-10-05 14:34:00.667346</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911028</t>
+          <t>2021-10-05 14:34:00.667348</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911030</t>
+          <t>2021-10-05 14:34:00.667351</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911033</t>
+          <t>2021-10-05 14:34:00.667354</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911035</t>
+          <t>2021-10-05 14:34:00.667356</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911038</t>
+          <t>2021-10-05 14:34:00.667359</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911041</t>
+          <t>2021-10-05 14:34:00.667361</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911043</t>
+          <t>2021-10-05 14:34:00.667364</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911046</t>
+          <t>2021-10-05 14:34:00.667367</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911048</t>
+          <t>2021-10-05 14:34:00.667369</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911051</t>
+          <t>2021-10-05 14:34:00.667372</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911054</t>
+          <t>2021-10-05 14:34:00.667375</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911056</t>
+          <t>2021-10-05 14:34:00.667378</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911059</t>
+          <t>2021-10-05 14:34:00.667381</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911062</t>
+          <t>2021-10-05 14:34:00.667383</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911064</t>
+          <t>2021-10-05 14:34:00.667386</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911067</t>
+          <t>2021-10-05 14:34:00.667389</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911069</t>
+          <t>2021-10-05 14:34:00.667391</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911072</t>
+          <t>2021-10-05 14:34:00.667394</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911075</t>
+          <t>2021-10-05 14:34:00.667397</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911077</t>
+          <t>2021-10-05 14:34:00.667399</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911080</t>
+          <t>2021-10-05 14:34:00.667402</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911082</t>
+          <t>2021-10-05 14:34:00.667405</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911085</t>
+          <t>2021-10-05 14:34:00.667407</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911087</t>
+          <t>2021-10-05 14:34:00.667410</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911090</t>
+          <t>2021-10-05 14:34:00.667412</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911092</t>
+          <t>2021-10-05 14:34:00.667415</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911095</t>
+          <t>2021-10-05 14:34:00.667417</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911097</t>
+          <t>2021-10-05 14:34:00.667420</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911100</t>
+          <t>2021-10-05 14:34:00.667423</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911102</t>
+          <t>2021-10-05 14:34:00.667425</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911105</t>
+          <t>2021-10-05 14:34:00.667428</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911108</t>
+          <t>2021-10-05 14:34:00.667431</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911110</t>
+          <t>2021-10-05 14:34:00.667433</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911113</t>
+          <t>2021-10-05 14:34:00.667436</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911116</t>
+          <t>2021-10-05 14:34:00.667438</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911118</t>
+          <t>2021-10-05 14:34:00.667441</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911121</t>
+          <t>2021-10-05 14:34:00.667444</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911123</t>
+          <t>2021-10-05 14:34:00.667447</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911126</t>
+          <t>2021-10-05 14:34:00.667449</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911129</t>
+          <t>2021-10-05 14:34:00.667452</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911131</t>
+          <t>2021-10-05 14:34:00.667454</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911134</t>
+          <t>2021-10-05 14:34:00.667457</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911137</t>
+          <t>2021-10-05 14:34:00.667461</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911140</t>
+          <t>2021-10-05 14:34:00.667464</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911143</t>
+          <t>2021-10-05 14:34:00.667466</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911145</t>
+          <t>2021-10-05 14:34:00.667469</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911148</t>
+          <t>2021-10-05 14:34:00.667472</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911151</t>
+          <t>2021-10-05 14:34:00.667474</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911153</t>
+          <t>2021-10-05 14:34:00.667477</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911156</t>
+          <t>2021-10-05 14:34:00.667480</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911158</t>
+          <t>2021-10-05 14:34:00.667482</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911161</t>
+          <t>2021-10-05 14:34:00.667485</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911163</t>
+          <t>2021-10-05 14:34:00.667488</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,91 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.911166</t>
+          <t>2021-10-05 14:34:00.667490</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hereditary Spastic Paraplegia Superpanel</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3117</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-04T05:19:07.050260Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:34:00.663562</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/3117/?format=json</t>
         </is>
       </c>
     </row>
